--- a/example/ExampleOrganDataset.xlsx
+++ b/example/ExampleOrganDataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">美術</t>
   </si>
   <si>
+    <t xml:space="preserve">60cb177298c96167bceb7a00</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,2,6</t>
   </si>
   <si>
@@ -58,16 +61,10 @@
     <t xml:space="preserve">組織C</t>
   </si>
   <si>
-    <t xml:space="preserve">A0103</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,2,3,4,5</t>
   </si>
   <si>
     <t xml:space="preserve">組織D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0104</t>
   </si>
   <si>
     <t xml:space="preserve">1,2,3</t>
@@ -82,7 +79,7 @@
     <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="YYYY/M/D"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Microsoft JhengHei"/>
@@ -109,11 +106,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,19 +169,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,7 +261,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,7 +269,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.01"/>
   </cols>
   <sheetData>
@@ -306,7 +294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
@@ -316,61 +304,59 @@
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
